--- a/status/status.xlsx
+++ b/status/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrocca\Desktop\cefriel-github\tandcatap\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24084548-0C6D-47DE-AA30-A4C618BFD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8AEC53-4A4E-4A50-9041-E0B52D1AEC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>dct:title</t>
   </si>
@@ -67,9 +67,6 @@
     <t>TANGENT Data Source Status</t>
   </si>
   <si>
-    <t>Status for data sources in the TANGENT Data Catalogue.</t>
-  </si>
-  <si>
     <t>Not relevant</t>
   </si>
   <si>
@@ -80,6 +77,45 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>dct:creator</t>
+  </si>
+  <si>
+    <t>Mario Scrocca (Cefriel)</t>
+  </si>
+  <si>
+    <t>dct:publisher</t>
+  </si>
+  <si>
+    <t>TANGENT WP2</t>
+  </si>
+  <si>
+    <t>owl:versionInfo</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>owl:versionIRI</t>
+  </si>
+  <si>
+    <t>owl:priorVersion</t>
+  </si>
+  <si>
+    <t>dct:license</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>http://purl.org/ontology/bibo/status</t>
+  </si>
+  <si>
+    <t>Published Controlled Vocabulary</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary for the status of data sources in TANGENT.</t>
   </si>
 </sst>
 </file>
@@ -144,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -160,6 +196,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,10 +514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,69 +552,131 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT(B1,"/",B6)</f>
+        <v>https://knowledge.c-innovationhub.com/tangent/status/1.0.0</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.CONCAT("https://knowledge.c-innovationhub.com/tangent/status/",SUBSTITUTE(LOWER(B15)," ","-"))</f>
+        <v>https://knowledge.c-innovationhub.com/tangent/status/approved</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" ref="A16:A18" si="0">_xlfn.CONCAT("https://knowledge.c-innovationhub.com/tangent/status/",SUBSTITUTE(LOWER(B16)," ","-"))</f>
+        <v>https://knowledge.c-innovationhub.com/tangent/status/not-relevant</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("https://knowledge.c-innovationhub.com/tangent/status/",SUBSTITUTE(LOWER(B8)," ","-"))</f>
-        <v>https://knowledge.c-innovationhub.com/tangent/status/approved</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f t="shared" ref="A9:A11" si="0">_xlfn.CONCAT("https://knowledge.c-innovationhub.com/tangent/status/",SUBSTITUTE(LOWER(B9)," ","-"))</f>
-        <v>https://knowledge.c-innovationhub.com/tangent/status/not-relevant</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://knowledge.c-innovationhub.com/tangent/status/not-accessible</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://knowledge.c-innovationhub.com/tangent/status/incomplete-metadata</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{8D37ED2A-6F4C-4B2C-B212-84B5255111B4}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{ED352CEC-E012-43A9-B23F-E94925EF9347}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{1E73862C-DC68-434A-AD14-0392DD6F9E2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
